--- a/biology/Médecine/1608_en_santé_et_médecine/1608_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1608_en_santé_et_médecine/1608_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1608_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1608_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1608 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1608_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1608_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Claude Charles (1576-1631), doyen de la Faculté, « interdit aux médecins de Paris de consulter avec des médecins étrangers, hormis le Premier médecin du roi et celui de la reine[1] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Claude Charles (1576-1631), doyen de la Faculté, « interdit aux médecins de Paris de consulter avec des médecins étrangers, hormis le Premier médecin du roi et celui de la reine ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1608_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1608_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication, dans les Institutionum pharmaceuticarum libri quinque de Jean de Renou, du « jusjurandum pharmacopoeorum », qui sera traduit en français par Louis de Serres en 1624 sous le terme de « serment des apothicaires chrétiens et craignant Dieu », et connu par la suite comme « serment de Galien[2] ».
-Publication posthume du De morbis oculorum de Johan Van Heurne (1543-1601), médecin et philosophe néerlandais[3].
-1602-1608 : Félix Platter (1536-1614) publie les trois volumes de sa Praxis medica où, pour la première fois, les maladies sont classées en fonction de leurs symptômes[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Publication, dans les Institutionum pharmaceuticarum libri quinque de Jean de Renou, du « jusjurandum pharmacopoeorum », qui sera traduit en français par Louis de Serres en 1624 sous le terme de « serment des apothicaires chrétiens et craignant Dieu », et connu par la suite comme « serment de Galien ».
+Publication posthume du De morbis oculorum de Johan Van Heurne (1543-1601), médecin et philosophe néerlandais.
+1602-1608 : Félix Platter (1536-1614) publie les trois volumes de sa Praxis medica où, pour la première fois, les maladies sont classées en fonction de leurs symptômes.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1608_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1608_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1588-1608 : fl. Guillaume Baucinet, médecin paracelsien français[5].
-1597-1608 : fl. Israël Harvet, médecin paracelsien français[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1588-1608 : fl. Guillaume Baucinet, médecin paracelsien français.
+1597-1608 : fl. Israël Harvet, médecin paracelsien français.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1608_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1608_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>28 janvier : Giovanni Alfonso Borelli (mort en 1679), mathématicien, philosophe, astronome, médecin et physiologiste italien[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>28 janvier : Giovanni Alfonso Borelli (mort en 1679), mathématicien, philosophe, astronome, médecin et physiologiste italien.</t>
         </is>
       </c>
     </row>
